--- a/Project/Project1(공식 및 DPM 분석)/DPM 분석 - 최적화.xlsx
+++ b/Project/Project1(공식 및 DPM 분석)/DPM 분석 - 최적화.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folder\MapleStory\MapleStory\Project\Project1(공식 및 DPM 분석)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA7431E-EB06-4A44-BAB5-D034043B4FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF2A76-3EBE-4DEF-AF92-C4CA6022F56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A70D4F0B-AC37-4257-A510-E4063F27CAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Npm" sheetId="1" r:id="rId1"/>
     <sheet name="DPM표" sheetId="3" r:id="rId2"/>
+    <sheet name="AP" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -833,7 +834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,6 +864,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -1520,7 +1527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1698,14 +1705,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1767,21 +1864,87 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,173 +1957,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2280,7 +2308,7 @@
   <dimension ref="B1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2294,26 +2322,26 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
       <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="77" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
@@ -2383,7 +2411,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2392,176 +2420,173 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="144">
         <v>95</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="144">
         <v>87</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="144">
         <v>80</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="144">
         <v>74</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="144">
         <v>72</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="144">
         <v>67</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="144">
         <v>63</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="145"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B10" s="66"/>
-      <c r="C10" s="68" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="98" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="146">
         <v>30</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="148"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="66"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="149">
         <v>100</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="149">
         <v>90</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="149">
         <v>83</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="149">
         <v>80</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="149">
         <v>74</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="149">
         <v>69</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="149">
         <v>67</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="150">
         <v>63</v>
       </c>
-      <c r="N11">
-        <v>64</v>
-      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B12" s="66"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="149">
         <v>74</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="149">
         <v>69</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="149">
         <v>66</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="149">
         <v>61</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="149">
         <v>59</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="149">
         <v>53</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="149">
         <v>50</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="150">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="66"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="98" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="149">
         <v>95</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="149">
         <v>87</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="149">
         <v>80</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="149">
         <v>74</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="149">
         <v>72</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="149">
         <v>67</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="149">
         <v>63</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="150"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="66"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="149">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="149">
         <v>90</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="149">
         <v>83</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="149">
         <v>80</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="149">
         <v>74</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="149">
         <v>69</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="149">
         <v>67</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="150"/>
     </row>
     <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="67"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
@@ -2578,10 +2603,10 @@
     </row>
     <row r="16" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="103" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2590,19 +2615,19 @@
       <c r="E17" s="5">
         <v>31</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
       <c r="K17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="71"/>
-      <c r="C18" s="74"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
@@ -2615,8 +2640,8 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="71"/>
-      <c r="C19" s="75" t="s">
+      <c r="B19" s="101"/>
+      <c r="C19" s="105" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2631,8 +2656,8 @@
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="72"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -2648,10 +2673,10 @@
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="110" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2674,8 +2699,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="66"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="3" t="s">
         <v>41</v>
       </c>
@@ -2696,24 +2721,24 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="67"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="107">
         <v>500</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
     </row>
     <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="95" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="17" t="s">
@@ -2731,8 +2756,8 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="66"/>
-      <c r="C27" s="68" t="s">
+      <c r="B27" s="96"/>
+      <c r="C27" s="98" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2751,8 +2776,8 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="66"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="3" t="s">
         <v>49</v>
       </c>
@@ -2769,8 +2794,8 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="67"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="8" t="s">
         <v>50</v>
       </c>
@@ -2791,11 +2816,11 @@
       </c>
     </row>
     <row r="34" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
     </row>
     <row r="35" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D35" s="20" t="s">
@@ -2809,10 +2834,10 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="103" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -2824,8 +2849,8 @@
       <c r="F36" s="19"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="71"/>
-      <c r="C37" s="74"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="104"/>
       <c r="D37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2835,8 +2860,8 @@
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="71"/>
-      <c r="C38" s="75" t="s">
+      <c r="B38" s="101"/>
+      <c r="C38" s="105" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2848,8 +2873,8 @@
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="71"/>
-      <c r="C39" s="74"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2859,8 +2884,8 @@
       <c r="F39" s="14"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="71"/>
-      <c r="C40" s="75" t="s">
+      <c r="B40" s="101"/>
+      <c r="C40" s="105" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2874,8 +2899,8 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="72"/>
-      <c r="C41" s="76"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="8" t="s">
         <v>37</v>
       </c>
@@ -2917,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C9F59-3EE7-4C00-8DB6-E096F44C6ABD}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2948,25 +2973,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="83" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="83" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -2987,9 +3012,18 @@
       <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
+      <c r="L3">
+        <v>400</v>
+      </c>
+      <c r="M3">
+        <v>500</v>
+      </c>
+      <c r="N3">
+        <v>600</v>
+      </c>
     </row>
     <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="116"/>
+      <c r="A4" s="83"/>
       <c r="E4" s="7">
         <v>18</v>
       </c>
@@ -3006,24 +3040,36 @@
         <v>7</v>
       </c>
       <c r="J4" s="9">
-        <f>E4+F4*249+G4*100+H4*100+I4*100</f>
-        <v>3063</v>
+        <f>E4+F4*249+G4*100+H4*100+I4*100+8</f>
+        <v>3071</v>
+      </c>
+      <c r="L4">
+        <f>J4+99*8+9</f>
+        <v>3872</v>
+      </c>
+      <c r="M4">
+        <f>L4+99*9+11</f>
+        <v>4774</v>
+      </c>
+      <c r="N4">
+        <f>M4+99*11+12</f>
+        <v>5875</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="137"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="126"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3034,13 +3080,13 @@
       <c r="S6" s="31"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="82"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="27"/>
       <c r="H7" s="29" t="s">
         <v>106</v>
@@ -3080,12 +3126,12 @@
       <c r="G8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="122"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3135,24 +3181,24 @@
     </row>
     <row r="10" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="119" t="s">
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="121"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="130"/>
     </row>
     <row r="12" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="36" t="s">
@@ -3311,8 +3357,8 @@
       <c r="O15" s="14">
         <v>30</v>
       </c>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B16" s="26"/>
@@ -3345,16 +3391,16 @@
       <c r="O16" s="14">
         <v>40</v>
       </c>
-      <c r="R16" s="65" t="s">
+      <c r="R16" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="S16" s="82"/>
-      <c r="U16" s="65" t="s">
+      <c r="S16" s="123"/>
+      <c r="U16" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="82"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="123"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="26"/>
@@ -3435,7 +3481,7 @@
       </c>
       <c r="R18" s="58">
         <f>(H24*400 + 1200*(D24+E24))*550/250</f>
-        <v>4406160</v>
+        <v>4414080</v>
       </c>
       <c r="S18" s="32" t="s">
         <v>125</v>
@@ -3443,24 +3489,24 @@
       <c r="U18" s="7">
         <v>30</v>
       </c>
-      <c r="V18" s="69">
+      <c r="V18" s="99">
         <v>50</v>
       </c>
-      <c r="W18" s="69"/>
-      <c r="X18" s="134"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="143"/>
     </row>
     <row r="20" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="P20" s="68" t="s">
+      <c r="P20" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="86" t="s">
+      <c r="Q20" s="98"/>
+      <c r="R20" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="S20" s="86"/>
+      <c r="S20" s="137"/>
       <c r="T20" s="51" t="s">
         <v>117</v>
       </c>
@@ -3487,54 +3533,54 @@
       <c r="E21" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="144" t="s">
+      <c r="F21" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="144" t="s">
+      <c r="G21" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="144" t="s">
+      <c r="H21" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="144" t="s">
+      <c r="I21" s="89" t="s">
         <v>113</v>
       </c>
       <c r="J21" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="145" t="s">
+      <c r="K21" s="90" t="s">
         <v>102</v>
       </c>
       <c r="L21" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="M21" s="146"/>
-      <c r="N21" s="144" t="s">
+      <c r="M21" s="91"/>
+      <c r="N21" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="O21" s="144" t="s">
+      <c r="O21" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="P21" s="144" t="s">
+      <c r="P21" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="Q21" s="144" t="s">
+      <c r="Q21" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="R21" s="144" t="s">
+      <c r="R21" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="S21" s="144" t="s">
+      <c r="S21" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="T21" s="85" t="s">
+      <c r="T21" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="U21" s="97"/>
-      <c r="V21" s="101" t="s">
+      <c r="U21" s="136"/>
+      <c r="V21" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="W21" s="102" t="s">
+      <c r="W21" s="69" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3561,7 +3607,7 @@
       </c>
       <c r="H22" s="3">
         <f>INT($J$4*1.15)+SUM($G$13:$G$18) +$D$13</f>
-        <v>3762</v>
+        <v>3771</v>
       </c>
       <c r="I22" s="3">
         <f>4+SUM($H$13:$H$18) + $D$13</f>
@@ -3587,37 +3633,37 @@
       </c>
       <c r="P22" s="3">
         <f>INT((H22*4.6+I22)/100*(D22+E22+F22))</f>
-        <v>89851</v>
+        <v>90063</v>
       </c>
       <c r="Q22" s="3">
         <f>INT((H22*0.9*0.6*4.6+I22)/100*(D22+E22+F22))</f>
-        <v>49094</v>
+        <v>49209</v>
       </c>
       <c r="R22" s="3">
         <f>INT(P22*$N22/100*$G22)</f>
-        <v>768226</v>
+        <v>770038</v>
       </c>
       <c r="S22" s="3">
         <f>INT(Q22*$N22/100*$G22)</f>
-        <v>419753</v>
+        <v>420736</v>
       </c>
       <c r="T22" s="49">
         <f>K22*$O22*( (1-T37/100)*AVERAGE($R22:$S22) + T37/100*AVERAGE($X37:$Y37) )</f>
-        <v>95038320</v>
-      </c>
-      <c r="U22" s="98">
+        <v>95261920</v>
+      </c>
+      <c r="U22" s="65">
         <f>L22*$O22*( (1-U37/100)*AVERAGE($R22:$S22) + U37/100*AVERAGE($X37:$Y37) )</f>
-        <v>124143805.49999999</v>
-      </c>
-      <c r="V22" s="103">
+        <v>124435920.99999999</v>
+      </c>
+      <c r="V22" s="70">
         <f t="shared" ref="V22:V33" si="0">RANK(T22,$T$22:$T$33,0)</f>
         <v>6</v>
       </c>
-      <c r="W22" s="104">
+      <c r="W22" s="71">
         <f t="shared" ref="W22:W33" si="1">RANK(U22,$U$22:$U$33,0)</f>
         <v>5</v>
       </c>
-      <c r="X22" s="100" t="s">
+      <c r="X22" s="67" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3644,7 +3690,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" ref="H23:H26" si="2">INT($J$4*1.15)+SUM($G$13:$G$18) +$D$13</f>
-        <v>3762</v>
+        <v>3771</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ref="I23:I24" si="3">4+SUM($H$13:$H$18) + $D$13</f>
@@ -3670,37 +3716,37 @@
       </c>
       <c r="P23" s="3">
         <f>INT((H23*5+I23)/100*(D23+E23+F23))</f>
-        <v>88601</v>
+        <v>88810</v>
       </c>
       <c r="Q23" s="3">
         <f>INT((H23*3*0.9*0.8+I23)/100*(D23+E23+F23))</f>
-        <v>38920</v>
+        <v>39010</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" ref="R23:R24" si="4">INT(P23*$N23/100*$G23)</f>
-        <v>465155</v>
+        <v>466252</v>
       </c>
       <c r="S23" s="3">
         <f t="shared" ref="S23:S24" si="5">INT(Q23*$N23/100*$G23)</f>
-        <v>204330</v>
+        <v>204802</v>
       </c>
       <c r="T23" s="49">
         <f t="shared" ref="T23:U23" si="6">K23*$O23*( (1-T38/100)*AVERAGE($R23:$S23) + T38/100*AVERAGE($X38:$Y38) )</f>
-        <v>88372020</v>
-      </c>
-      <c r="U23" s="98">
+        <v>88579128</v>
+      </c>
+      <c r="U23" s="65">
         <f t="shared" si="6"/>
-        <v>116918860.39999999</v>
-      </c>
-      <c r="V23" s="103">
+        <v>117192941.59999999</v>
+      </c>
+      <c r="V23" s="70">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="W23" s="104">
+      <c r="W23" s="71">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="X23" s="100" t="s">
+      <c r="X23" s="67" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3724,7 +3770,7 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>3762</v>
+        <v>3771</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="3"/>
@@ -3750,37 +3796,37 @@
       </c>
       <c r="P24" s="3">
         <f>INT((H24*4+I24)/100*(D24+E24+F24))</f>
-        <v>63461</v>
+        <v>63611</v>
       </c>
       <c r="Q24" s="3">
         <f>INT((H24*4*0.9*0.6+I24)/100*(D24+E24+F24))</f>
-        <v>34735</v>
+        <v>34815</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" si="4"/>
-        <v>444227</v>
+        <v>445277</v>
       </c>
       <c r="S24" s="3">
         <f t="shared" si="5"/>
-        <v>243145</v>
+        <v>243705</v>
       </c>
       <c r="T24" s="49">
         <f>K24*$O24*( (1-T39/100)*AVERAGE($R24:$S24) + T39/100*AVERAGE($X39:$Y39) ) + R18*5</f>
-        <v>44714076</v>
-      </c>
-      <c r="U24" s="98">
+        <v>44806806</v>
+      </c>
+      <c r="U24" s="65">
         <f>L24*$O24*( (1-U39/100)*AVERAGE($R24:$S24) + U39/100*AVERAGE($X39:$Y39) )+ R18*5</f>
-        <v>50927416.049999997</v>
-      </c>
-      <c r="V24" s="103">
+        <v>51034699.299999997</v>
+      </c>
+      <c r="V24" s="70">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="W24" s="104">
+      <c r="W24" s="71">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="X24" s="100" t="s">
+      <c r="X24" s="67" t="s">
         <v>3</v>
       </c>
       <c r="Y24" t="s">
@@ -3807,7 +3853,7 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>3762</v>
+        <v>3771</v>
       </c>
       <c r="I25" s="3">
         <f>4+SUM($H$13:$H$18) +4 +$D$13</f>
@@ -3833,37 +3879,37 @@
       </c>
       <c r="P25" s="3">
         <f>INT((H25*4+I25)/100*(D25+E25+F25))</f>
-        <v>57971</v>
+        <v>58108</v>
       </c>
       <c r="Q25" s="3">
         <f>INT((H25*4*0.9*0.6+I25)/100*(D25+E25+F25))</f>
-        <v>31737</v>
+        <v>31810</v>
       </c>
       <c r="R25" s="45">
         <f>INT( 5*$H$25*(SUM($D$25:$E$25))/100 *$N$25/100 )</f>
-        <v>142579</v>
+        <v>142920</v>
       </c>
       <c r="S25" s="45">
         <f>INT( 2.5*$H$25*(SUM($D$25:$E$25))/100 *$N$25/100 )</f>
-        <v>71289</v>
+        <v>71460</v>
       </c>
       <c r="T25" s="49">
         <f>K25*$O25*( (1-T40/100)*AVERAGE($R25:$S25) + T40/100*AVERAGE($X40:$Y40) ) * 1.6</f>
-        <v>111211840</v>
-      </c>
-      <c r="U25" s="98">
+        <v>111478080</v>
+      </c>
+      <c r="U25" s="65">
         <f>L25*$O25*( (1-U40/100)*AVERAGE($R25:$S25) + U40/100*AVERAGE($X40:$Y40) ) * 1.6</f>
-        <v>136876288</v>
-      </c>
-      <c r="V25" s="103">
+        <v>137203968</v>
+      </c>
+      <c r="V25" s="70">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="W25" s="104">
+        <v>4</v>
+      </c>
+      <c r="W25" s="71">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X25" s="100" t="s">
+      <c r="X25" s="67" t="s">
         <v>89</v>
       </c>
       <c r="Y25" t="s">
@@ -3890,7 +3936,7 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>3762</v>
+        <v>3771</v>
       </c>
       <c r="I26" s="3">
         <f>4+SUM($H$13:$H$18)+4 +$D$13</f>
@@ -3916,256 +3962,256 @@
       </c>
       <c r="P26" s="3">
         <f>INT((H26*3.6+I26)/100*(D26+E26+F26))</f>
-        <v>56681</v>
+        <v>56814</v>
       </c>
       <c r="Q26" s="3">
         <f>INT((H26*3.6*0.9*0.6+I26)/100*(D26+E26+F26))</f>
-        <v>31077</v>
+        <v>31148</v>
       </c>
       <c r="R26" s="3">
         <f t="shared" ref="R26" si="8">INT(P26*$N26/100*$G26)</f>
-        <v>133200</v>
+        <v>133512</v>
       </c>
       <c r="S26" s="3">
         <f t="shared" ref="S26" si="9">INT(Q26*$N26/100*$G26)</f>
-        <v>73030</v>
+        <v>73197</v>
       </c>
       <c r="T26" s="49">
         <f t="shared" ref="T26" si="10">K26*$O26*( (1-T41/100)*AVERAGE($R26:$S26) + T41/100*AVERAGE($X41:$Y41) )</f>
-        <v>51351270</v>
-      </c>
-      <c r="U26" s="98">
+        <v>51470541</v>
+      </c>
+      <c r="U26" s="65">
         <f t="shared" ref="U26" si="11">L26*$O26*( (1-U41/100)*AVERAGE($R26:$S26) + U41/100*AVERAGE($X41:$Y41) )</f>
-        <v>61184553.899999991</v>
-      </c>
-      <c r="V26" s="103">
+        <v>61326683.099999994</v>
+      </c>
+      <c r="V26" s="70">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W26" s="104">
+      <c r="W26" s="71">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="X26" s="100" t="s">
+      <c r="X26" s="67" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="59">
         <v>280</v>
       </c>
-      <c r="E27" s="91">
+      <c r="E27" s="59">
         <f>SUM($J$14,$M$13,$M$14,$M$15,$M$16,$M$17,$M$18)</f>
         <v>126</v>
       </c>
-      <c r="F27" s="91">
+      <c r="F27" s="59">
         <f>SUM($G$37)</f>
         <v>20</v>
       </c>
-      <c r="G27" s="91">
+      <c r="G27" s="59">
         <v>1.5</v>
       </c>
-      <c r="H27" s="91">
+      <c r="H27" s="59">
         <f>INT($J$4*1.15)+SUM($N$13:$N$18)+$K$13+$K$14</f>
-        <v>3945</v>
-      </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="92">
+      <c r="K27" s="60">
         <f>Npm!$E$37</f>
         <v>87</v>
       </c>
-      <c r="L27" s="93">
+      <c r="L27" s="61">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="91">
+      <c r="M27" s="62"/>
+      <c r="N27" s="59">
         <v>550</v>
       </c>
-      <c r="O27" s="91">
+      <c r="O27" s="59">
         <v>2</v>
       </c>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="91">
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="59">
         <f xml:space="preserve"> INT((0.0033665*(D27+E27+F27+H27)^2+3.3*(D27+E27+F27+H27)+0.5*H27)*N27/100*$G$27)</f>
-        <v>665906</v>
-      </c>
-      <c r="S27" s="91">
+        <v>668376</v>
+      </c>
+      <c r="S27" s="59">
         <f>INT((0.0033665*(D27+E27+F27+H27)^2+3.3*0.9*0.6*(D27+E27+F27+H27)+0.5*H27)*N27/100*$G$27)</f>
-        <v>611166</v>
-      </c>
-      <c r="T27" s="96">
+        <v>613523</v>
+      </c>
+      <c r="T27" s="64">
         <f t="shared" ref="T27:T33" si="12">K27*$O27*( (1-T42/100)*AVERAGE($R27:$S27) + T42/100*AVERAGE($X42:$Y42) )</f>
-        <v>111105264</v>
-      </c>
-      <c r="U27" s="99">
+        <v>111525213</v>
+      </c>
+      <c r="U27" s="66">
         <f t="shared" ref="U27:U33" si="13">L27*$O27*( (1-U42/100)*AVERAGE($R27:$S27) + U42/100*AVERAGE($X42:$Y42) )</f>
-        <v>127771053.59999998</v>
-      </c>
-      <c r="V27" s="103">
+        <v>128253994.94999999</v>
+      </c>
+      <c r="V27" s="70">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="W27" s="104">
+        <v>3</v>
+      </c>
+      <c r="W27" s="71">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="X27" s="100" t="s">
+      <c r="X27" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="91">
+      <c r="D28" s="59">
         <v>280</v>
       </c>
-      <c r="E28" s="91">
+      <c r="E28" s="59">
         <f>SUM($J$14,$M$13,$M$14,$M$15,$M$16,$M$17,$M$18)</f>
         <v>126</v>
       </c>
-      <c r="F28" s="91">
+      <c r="F28" s="59">
         <f>SUM($G$37)</f>
         <v>20</v>
       </c>
-      <c r="G28" s="91">
+      <c r="G28" s="59">
         <v>1.5</v>
       </c>
-      <c r="H28" s="91">
+      <c r="H28" s="59">
         <f t="shared" ref="H28:H29" si="14">INT($J$4*1.15)+SUM($N$13:$N$18)+$K$13+$K$14</f>
-        <v>3945</v>
-      </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="92">
+      <c r="K28" s="60">
         <f>Npm!$E$39</f>
         <v>83</v>
       </c>
-      <c r="L28" s="93">
+      <c r="L28" s="61">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="91">
+      <c r="M28" s="62"/>
+      <c r="N28" s="59">
         <v>240</v>
       </c>
-      <c r="O28" s="91">
+      <c r="O28" s="59">
         <v>4</v>
       </c>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="91">
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="59">
         <f xml:space="preserve"> INT((0.0033665*(D28+E28+F28+H28)^2+3.3*(D28+E28+F28+H28)+0.5*H28)*N28/100*$G$28)</f>
-        <v>290577</v>
-      </c>
-      <c r="S28" s="91">
+        <v>291655</v>
+      </c>
+      <c r="S28" s="59">
         <f>INT((0.0033665*(D28+E28+F28+H28)^2+3.3*0.9*0.6*(D28+E28+F28+H28)+0.5*H28)*N28/100*$G$28)</f>
-        <v>266690</v>
-      </c>
-      <c r="T28" s="96">
+        <v>267719</v>
+      </c>
+      <c r="T28" s="64">
         <f t="shared" si="12"/>
-        <v>92506322</v>
-      </c>
-      <c r="U28" s="99">
+        <v>92856084</v>
+      </c>
+      <c r="U28" s="66">
         <f t="shared" si="13"/>
-        <v>106382270.29999998</v>
-      </c>
-      <c r="V28" s="103">
+        <v>106784496.59999999</v>
+      </c>
+      <c r="V28" s="70">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W28" s="104">
+      <c r="W28" s="71">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="X28" s="100" t="s">
+      <c r="X28" s="67" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="91">
+      <c r="D29" s="59">
         <v>280</v>
       </c>
-      <c r="E29" s="91">
+      <c r="E29" s="59">
         <f t="shared" ref="E29" si="15">SUM($J$14,$M$13,$M$14,$M$15,$M$16,$M$17,$M$18)</f>
         <v>126</v>
       </c>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91">
+      <c r="F29" s="59"/>
+      <c r="G29" s="59">
         <v>1</v>
       </c>
-      <c r="H29" s="91">
+      <c r="H29" s="59">
         <f t="shared" si="14"/>
-        <v>3945</v>
-      </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="92">
+      <c r="K29" s="60">
         <f>Npm!$F$41</f>
         <v>74</v>
       </c>
-      <c r="L29" s="93">
+      <c r="L29" s="61">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="91">
+      <c r="M29" s="62"/>
+      <c r="N29" s="59">
         <v>240</v>
       </c>
-      <c r="O29" s="91">
+      <c r="O29" s="59">
         <v>2</v>
       </c>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="91">
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="59">
         <f xml:space="preserve"> INT((0.0033665*(D29+E29+F29+H29)^2+3.3*(D29+E29+H29)+0.5*H29)*N29/100*$G$29)</f>
-        <v>192150</v>
-      </c>
-      <c r="S29" s="91">
+        <v>192865</v>
+      </c>
+      <c r="S29" s="59">
         <f>INT((0.0033665*(D29+E29+F29+H29)^2+3.3*0.9*0.6*(D29+E29+F29+H29)+0.5*H29)*N29/100*$G$29)</f>
-        <v>176298</v>
-      </c>
-      <c r="T29" s="96">
+        <v>176981</v>
+      </c>
+      <c r="T29" s="64">
         <f t="shared" si="12"/>
-        <v>27265152</v>
-      </c>
-      <c r="U29" s="99">
+        <v>27368604</v>
+      </c>
+      <c r="U29" s="66">
         <f t="shared" si="13"/>
-        <v>31354924.799999997</v>
-      </c>
-      <c r="V29" s="103">
+        <v>31473894.599999998</v>
+      </c>
+      <c r="V29" s="70">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="W29" s="104">
+      <c r="W29" s="71">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="X29" s="100" t="s">
+      <c r="X29" s="67" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4192,7 +4238,7 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" ref="H30:H33" si="16">INT($J$4*1.15)+SUM($G$13:$G$18) +$D$13</f>
-        <v>3762</v>
+        <v>3771</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" ref="I30:I33" si="17">4+SUM($H$13:$H$18) + $D$13</f>
@@ -4218,37 +4264,37 @@
       </c>
       <c r="P30" s="3">
         <f>INT((H30*3.4+I30)/100*(D30+E30+F30))</f>
-        <v>58786</v>
+        <v>58924</v>
       </c>
       <c r="Q30" s="3">
         <f>INT((H30*3.4*0.9*0.9+I30)/100*(D30+E30+F30))</f>
-        <v>47826</v>
+        <v>47938</v>
       </c>
       <c r="R30" s="3">
         <f t="shared" ref="R30" si="18">INT(P30*$N30/100*$G30)</f>
-        <v>135207</v>
+        <v>135525</v>
       </c>
       <c r="S30" s="3">
         <f t="shared" ref="S30" si="19">INT(Q30*$N30/100*$G30)</f>
-        <v>109999</v>
+        <v>110257</v>
       </c>
       <c r="T30" s="49">
         <f t="shared" si="12"/>
-        <v>107944250</v>
-      </c>
-      <c r="U30" s="98">
+        <v>108197625</v>
+      </c>
+      <c r="U30" s="65">
         <f t="shared" si="13"/>
-        <v>107944250</v>
-      </c>
-      <c r="V30" s="103">
+        <v>108197625</v>
+      </c>
+      <c r="V30" s="70">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W30" s="104">
+      <c r="W30" s="71">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="X30" s="100" t="s">
+      <c r="X30" s="67" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4275,7 +4321,7 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" si="16"/>
-        <v>3762</v>
+        <v>3771</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="17"/>
@@ -4301,37 +4347,37 @@
       </c>
       <c r="P31" s="3">
         <f>INT((H31*3.6+I31)/100*(D31+E31+F31))</f>
-        <v>58595</v>
+        <v>58733</v>
       </c>
       <c r="Q31" s="3">
         <f>INT((H31*3.6*0.9*0.9+I31)/100*(D31+E31+F31))</f>
-        <v>47659</v>
+        <v>47771</v>
       </c>
       <c r="R31" s="3">
         <f t="shared" ref="R31:R33" si="20">INT(P31*$N31/100*$G31)</f>
-        <v>234380</v>
+        <v>234932</v>
       </c>
       <c r="S31" s="3">
         <f t="shared" ref="S31:S33" si="21">INT(Q31*$N31/100*$G31)</f>
-        <v>190636</v>
+        <v>191084</v>
       </c>
       <c r="T31" s="49">
         <f t="shared" si="12"/>
-        <v>196038630</v>
-      </c>
-      <c r="U31" s="98">
+        <v>196499880</v>
+      </c>
+      <c r="U31" s="65">
         <f t="shared" si="13"/>
-        <v>224727210</v>
-      </c>
-      <c r="V31" s="103">
+        <v>225255960</v>
+      </c>
+      <c r="V31" s="70">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W31" s="104">
+      <c r="W31" s="71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X31" s="100" t="s">
+      <c r="X31" s="67" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4358,7 +4404,7 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="16"/>
-        <v>3762</v>
+        <v>3771</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="17"/>
@@ -4384,37 +4430,37 @@
       </c>
       <c r="P32" s="3">
         <f>INT((H32*4.8+I32)/100*(D32+E32+F32))</f>
-        <v>74853</v>
+        <v>75030</v>
       </c>
       <c r="Q32" s="3">
         <f>INT((H32*4.8*0.9*0.6+I32)/100*(D32+E32+F32))</f>
-        <v>40879</v>
+        <v>40975</v>
       </c>
       <c r="R32" s="3">
         <f t="shared" si="20"/>
-        <v>2357869</v>
+        <v>2363445</v>
       </c>
       <c r="S32" s="3">
         <f t="shared" si="21"/>
-        <v>1287688</v>
+        <v>1290712</v>
       </c>
       <c r="T32" s="49">
         <f t="shared" si="12"/>
-        <v>75827584</v>
-      </c>
-      <c r="U32" s="98">
+        <v>73083140</v>
+      </c>
+      <c r="U32" s="65">
         <f t="shared" si="13"/>
-        <v>77285806</v>
-      </c>
-      <c r="V32" s="103">
+        <v>74127188</v>
+      </c>
+      <c r="V32" s="70">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W32" s="104">
+      <c r="W32" s="71">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="X32" s="100" t="s">
+      <c r="X32" s="67" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4438,7 +4484,7 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" si="16"/>
-        <v>3762</v>
+        <v>3771</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="17"/>
@@ -4464,103 +4510,103 @@
       </c>
       <c r="P33" s="3">
         <f>INT( (H33*3.6+I33)/100*(D33+E33+F33) )</f>
-        <v>55700</v>
+        <v>55831</v>
       </c>
       <c r="Q33" s="3">
         <f>INT( (H33*3.6*0.9*0.6+I33)/100*(D33+E33+F33) )</f>
-        <v>30531</v>
+        <v>30602</v>
       </c>
       <c r="R33" s="3">
         <f t="shared" si="20"/>
-        <v>320832</v>
+        <v>321586</v>
       </c>
       <c r="S33" s="3">
         <f t="shared" si="21"/>
-        <v>175858</v>
+        <v>176267</v>
       </c>
       <c r="T33" s="49">
         <f t="shared" si="12"/>
-        <v>124172500</v>
-      </c>
-      <c r="U33" s="98">
+        <v>124463250</v>
+      </c>
+      <c r="U33" s="65">
         <f t="shared" si="13"/>
-        <v>135813700</v>
-      </c>
-      <c r="V33" s="105">
+        <v>136131750</v>
+      </c>
+      <c r="V33" s="72">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="W33" s="106">
+      <c r="W33" s="73">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="X33" s="100" t="s">
+      <c r="X33" s="67" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="124" t="s">
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="P35" s="125"/>
+      <c r="P35" s="85"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="62" t="s">
+      <c r="R35" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="126"/>
-      <c r="V35" s="127" t="s">
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="131"/>
+      <c r="V35" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="W35" s="128"/>
-      <c r="X35" s="127" t="s">
+      <c r="W35" s="133"/>
+      <c r="X35" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="Y35" s="129"/>
+      <c r="Y35" s="134"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="117" t="s">
+      <c r="C36" s="115"/>
+      <c r="D36" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="118"/>
-      <c r="F36" s="117" t="s">
+      <c r="E36" s="115"/>
+      <c r="F36" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="118"/>
-      <c r="H36" s="117" t="s">
+      <c r="G36" s="115"/>
+      <c r="H36" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="118"/>
-      <c r="J36" s="117" t="s">
+      <c r="I36" s="115"/>
+      <c r="J36" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="K36" s="118"/>
-      <c r="L36" s="117" t="s">
+      <c r="K36" s="115"/>
+      <c r="L36" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="M36" s="123"/>
-      <c r="N36" s="110"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="77"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="3" t="s">
@@ -4587,7 +4633,7 @@
       <c r="X36" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="Y36" s="130" t="s">
+      <c r="Y36" s="86" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4628,7 +4674,7 @@
       <c r="M37" s="40">
         <v>30</v>
       </c>
-      <c r="N37" s="110"/>
+      <c r="N37" s="77"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="3" t="s">
@@ -4652,11 +4698,11 @@
       <c r="W37" s="52"/>
       <c r="X37" s="3">
         <f>INT(P22*($N22+S37)/100*$G22)</f>
-        <v>1024301</v>
+        <v>1026718</v>
       </c>
       <c r="Y37" s="14">
         <f>INT(Q22*($N22+S37)/100*$G22)</f>
-        <v>559671</v>
+        <v>560982</v>
       </c>
     </row>
     <row r="38" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4684,7 +4730,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="41"/>
-      <c r="N38" s="110"/>
+      <c r="N38" s="77"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="3" t="s">
@@ -4708,15 +4754,15 @@
       <c r="W38" s="52"/>
       <c r="X38" s="3">
         <f>INT(P23*($N23+S38)/100*$G23)</f>
-        <v>744248</v>
+        <v>746004</v>
       </c>
       <c r="Y38" s="14">
         <f>INT(Q23*($N23+S38)/100*$G23)</f>
-        <v>326928</v>
+        <v>327684</v>
       </c>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N39" s="110"/>
+      <c r="N39" s="77"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="3" t="s">
@@ -4740,15 +4786,15 @@
       <c r="W39" s="52"/>
       <c r="X39" s="3">
         <f>INT(P24*($N24+S39)/100*$G24)</f>
-        <v>539418</v>
+        <v>540693</v>
       </c>
       <c r="Y39" s="14">
         <f>INT(Q24*($N24+S39)/100*$G24)</f>
-        <v>295247</v>
+        <v>295927</v>
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N40" s="110"/>
+      <c r="N40" s="77"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="3" t="s">
@@ -4770,23 +4816,23 @@
       </c>
       <c r="V40" s="45">
         <f>INT( 5*$H$25*(SUM($D$25:$E$25))/100 *($N$25+$R$40)/100 )</f>
-        <v>285159</v>
+        <v>285841</v>
       </c>
       <c r="W40" s="45">
         <f>INT( 2.5*$H$25*(SUM($D$25:$E$25))/100 *($N$25+$R$40)/100 )</f>
-        <v>142579</v>
+        <v>142920</v>
       </c>
       <c r="X40" s="45">
         <f>INT( 5*$H$25*(SUM($D$25:$E$25))/100 *($N$25+$S$40)/100 )</f>
-        <v>320804</v>
-      </c>
-      <c r="Y40" s="131">
+        <v>321572</v>
+      </c>
+      <c r="Y40" s="87">
         <f>INT( 2.5*$H$25*(SUM($D$25:$E$25))/100 *($N$25+$S$40)/100 )</f>
-        <v>160402</v>
+        <v>160786</v>
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N41" s="110"/>
+      <c r="N41" s="77"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="3" t="s">
@@ -4810,26 +4856,26 @@
       <c r="W41" s="52"/>
       <c r="X41" s="3">
         <f>INT(P26*($N26+S41)/100*$G26)</f>
-        <v>218221</v>
+        <v>218733</v>
       </c>
       <c r="Y41" s="14">
         <f>INT(Q26*($N26+S41)/100*$G26)</f>
-        <v>119646</v>
+        <v>119919</v>
       </c>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N42" s="110"/>
-      <c r="O42" s="87" t="s">
+      <c r="N42" s="77"/>
+      <c r="O42" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="P42" s="87"/>
+      <c r="P42" s="139"/>
       <c r="Q42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R42" s="88">
+      <c r="R42" s="140">
         <v>100</v>
       </c>
-      <c r="S42" s="88">
+      <c r="S42" s="140">
         <f>R42+$V$18</f>
         <v>150</v>
       </c>
@@ -4844,22 +4890,22 @@
       <c r="W42" s="52"/>
       <c r="X42" s="3">
         <f>R27*$S$42/100</f>
-        <v>998859</v>
+        <v>1002564</v>
       </c>
       <c r="Y42" s="14">
         <f>S27*$S$42/100</f>
-        <v>916749</v>
+        <v>920284.5</v>
       </c>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N43" s="110"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="139"/>
+      <c r="P43" s="139"/>
       <c r="Q43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R43" s="89"/>
-      <c r="S43" s="89"/>
+      <c r="R43" s="141"/>
+      <c r="S43" s="141"/>
       <c r="T43" s="3">
         <v>0</v>
       </c>
@@ -4871,22 +4917,22 @@
       <c r="W43" s="52"/>
       <c r="X43" s="3">
         <f t="shared" ref="X43:Y43" si="24">R28*$S$42/100</f>
-        <v>435865.5</v>
+        <v>437482.5</v>
       </c>
       <c r="Y43" s="14">
         <f t="shared" si="24"/>
-        <v>400035</v>
+        <v>401578.5</v>
       </c>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N44" s="110"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="139"/>
+      <c r="P44" s="139"/>
       <c r="Q44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
+      <c r="R44" s="142"/>
+      <c r="S44" s="142"/>
       <c r="T44" s="3">
         <v>0</v>
       </c>
@@ -4898,19 +4944,19 @@
       <c r="W44" s="52"/>
       <c r="X44" s="3">
         <f t="shared" ref="X44:Y44" si="25">R29*$S$42/100</f>
-        <v>288225</v>
+        <v>289297.5</v>
       </c>
       <c r="Y44" s="14">
         <f t="shared" si="25"/>
-        <v>264447</v>
+        <v>265471.5</v>
       </c>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N45" s="132" t="s">
+      <c r="N45" s="138" t="s">
         <v>170</v>
       </c>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
+      <c r="O45" s="139"/>
+      <c r="P45" s="139"/>
       <c r="Q45" s="3" t="s">
         <v>39</v>
       </c>
@@ -4928,25 +4974,25 @@
       </c>
       <c r="V45" s="54">
         <f>INT(P30*($N30+R45)/100*$G30)</f>
-        <v>282172</v>
+        <v>282835</v>
       </c>
       <c r="W45" s="54">
         <f>INT(Q30*($N30+R45)/100*$G30)</f>
-        <v>229564</v>
+        <v>230102</v>
       </c>
       <c r="X45" s="54">
         <f>INT(P30*($N30+S45)/100*$G30)</f>
-        <v>282172</v>
-      </c>
-      <c r="Y45" s="133">
+        <v>282835</v>
+      </c>
+      <c r="Y45" s="88">
         <f>INT(Q30*($N30+S45)/100*$G30)</f>
-        <v>229564</v>
+        <v>230102</v>
       </c>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N46" s="132"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="139"/>
+      <c r="P46" s="139"/>
       <c r="Q46" s="3" t="s">
         <v>38</v>
       </c>
@@ -4964,61 +5010,61 @@
       </c>
       <c r="V46" s="54">
         <f t="shared" ref="V46:V47" si="26">INT(P31*($N31+R46)/100*$G31)</f>
-        <v>527355</v>
+        <v>528597</v>
       </c>
       <c r="W46" s="54">
         <f t="shared" ref="W46:W47" si="27">INT(Q31*($N31+R46)/100*$G31)</f>
-        <v>428931</v>
+        <v>429939</v>
       </c>
       <c r="X46" s="54">
         <f>INT(P31*($N31+S46)/100*$G31)</f>
-        <v>527355</v>
-      </c>
-      <c r="Y46" s="133">
+        <v>528597</v>
+      </c>
+      <c r="Y46" s="88">
         <f>INT(Q31*($N31+S46)/100*$G31)</f>
-        <v>428931</v>
+        <v>429939</v>
       </c>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N47" s="110"/>
+      <c r="N47" s="77"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="R47" s="3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="S47" s="3">
         <f t="shared" ref="S47:S48" si="28">R47+$V$18</f>
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="T47" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <f t="shared" si="23"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="V47" s="3">
         <f t="shared" si="26"/>
-        <v>2477634</v>
+        <v>2438475</v>
       </c>
       <c r="W47" s="3">
         <f t="shared" si="27"/>
-        <v>1353094</v>
+        <v>1331687</v>
       </c>
       <c r="X47" s="3">
         <f>INT(P32*($N32+S47)/100*$G32)</f>
-        <v>2515060</v>
+        <v>2475990</v>
       </c>
       <c r="Y47" s="14">
         <f>INT(Q32*($N32+S47)/100*$G32)</f>
-        <v>1373534</v>
+        <v>1352175</v>
       </c>
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N48" s="110"/>
+      <c r="N48" s="77"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="3" t="s">
@@ -5042,26 +5088,26 @@
       <c r="W48" s="52"/>
       <c r="X48" s="3">
         <f>INT(P33*($N33+S48)/100*$G33)</f>
-        <v>421092</v>
+        <v>422082</v>
       </c>
       <c r="Y48" s="14">
         <f>INT(Q33*($N33+S48)/100*$G33)</f>
-        <v>230814</v>
+        <v>231351</v>
       </c>
     </row>
     <row r="49" spans="14:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="N49" s="112"/>
-      <c r="O49" s="113"/>
-      <c r="P49" s="113"/>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="113"/>
-      <c r="S49" s="113"/>
-      <c r="T49" s="113"/>
-      <c r="U49" s="113"/>
-      <c r="V49" s="113"/>
-      <c r="W49" s="113"/>
-      <c r="X49" s="113"/>
-      <c r="Y49" s="114"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -5097,4 +5143,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CBE2C4-7B06-4008-9630-4534C485FE9D}">
+  <dimension ref="B2:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project/Project1(공식 및 DPM 분석)/DPM 분석 - 최적화.xlsx
+++ b/Project/Project1(공식 및 DPM 분석)/DPM 분석 - 최적화.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folder\MapleStory\MapleStory\Project\Project1(공식 및 DPM 분석)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF2A76-3EBE-4DEF-AF92-C4CA6022F56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03A17EC-8C2E-41C1-BADF-3E5545E50882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A70D4F0B-AC37-4257-A510-E4063F27CAB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A70D4F0B-AC37-4257-A510-E4063F27CAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Npm" sheetId="1" r:id="rId1"/>
     <sheet name="DPM표" sheetId="3" r:id="rId2"/>
-    <sheet name="AP" sheetId="4" r:id="rId3"/>
+    <sheet name="SKILL" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="178">
   <si>
     <t>전사</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1527,7 +1527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1804,6 +1804,39 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1960,35 +1993,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2307,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAAAC6D-2172-432F-8390-824E0FEFAB61}">
   <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2378,28 +2411,28 @@
         <v>44</v>
       </c>
       <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>4</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>5</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>6</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>7</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>8</v>
-      </c>
-      <c r="L7" s="9">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2411,7 +2444,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="106" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2420,173 +2453,173 @@
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="144">
+      <c r="E9" s="92">
         <v>95</v>
       </c>
-      <c r="F9" s="144">
+      <c r="F9" s="92">
         <v>87</v>
       </c>
-      <c r="G9" s="144">
+      <c r="G9" s="92">
         <v>80</v>
       </c>
-      <c r="H9" s="144">
+      <c r="H9" s="92">
         <v>74</v>
       </c>
-      <c r="I9" s="144">
+      <c r="I9" s="92">
         <v>72</v>
       </c>
-      <c r="J9" s="144">
+      <c r="J9" s="92">
         <v>67</v>
       </c>
-      <c r="K9" s="144">
+      <c r="K9" s="92">
         <v>63</v>
       </c>
-      <c r="L9" s="145"/>
+      <c r="L9" s="93"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B10" s="96"/>
-      <c r="C10" s="98" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="109" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="146">
+      <c r="E10" s="100">
         <v>30</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="96"/>
-      <c r="C11" s="98"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="149">
+      <c r="E11" s="94">
         <v>100</v>
       </c>
-      <c r="F11" s="149">
+      <c r="F11" s="94">
         <v>90</v>
       </c>
-      <c r="G11" s="149">
+      <c r="G11" s="94">
         <v>83</v>
       </c>
-      <c r="H11" s="149">
+      <c r="H11" s="94">
         <v>80</v>
       </c>
-      <c r="I11" s="149">
+      <c r="I11" s="94">
         <v>74</v>
       </c>
-      <c r="J11" s="149">
+      <c r="J11" s="94">
         <v>69</v>
       </c>
-      <c r="K11" s="149">
+      <c r="K11" s="94">
         <v>67</v>
       </c>
-      <c r="L11" s="150">
+      <c r="L11" s="95">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B12" s="96"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="149">
+      <c r="E12" s="94">
         <v>74</v>
       </c>
-      <c r="F12" s="149">
+      <c r="F12" s="94">
         <v>69</v>
       </c>
-      <c r="G12" s="149">
+      <c r="G12" s="94">
         <v>66</v>
       </c>
-      <c r="H12" s="149">
+      <c r="H12" s="94">
         <v>61</v>
       </c>
-      <c r="I12" s="149">
+      <c r="I12" s="94">
         <v>59</v>
       </c>
-      <c r="J12" s="149">
+      <c r="J12" s="94">
         <v>53</v>
       </c>
-      <c r="K12" s="149">
+      <c r="K12" s="94">
         <v>50</v>
       </c>
-      <c r="L12" s="150">
+      <c r="L12" s="95">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="96"/>
-      <c r="C13" s="98" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="109" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="149">
+      <c r="E13" s="94">
         <v>95</v>
       </c>
-      <c r="F13" s="149">
+      <c r="F13" s="94">
         <v>87</v>
       </c>
-      <c r="G13" s="149">
+      <c r="G13" s="94">
         <v>80</v>
       </c>
-      <c r="H13" s="149">
+      <c r="H13" s="94">
         <v>74</v>
       </c>
-      <c r="I13" s="149">
+      <c r="I13" s="94">
         <v>72</v>
       </c>
-      <c r="J13" s="149">
+      <c r="J13" s="94">
         <v>67</v>
       </c>
-      <c r="K13" s="149">
+      <c r="K13" s="94">
         <v>63</v>
       </c>
-      <c r="L13" s="150"/>
+      <c r="L13" s="95"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="96"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="149">
+      <c r="E14" s="94">
         <v>100</v>
       </c>
-      <c r="F14" s="149">
+      <c r="F14" s="94">
         <v>90</v>
       </c>
-      <c r="G14" s="149">
+      <c r="G14" s="94">
         <v>83</v>
       </c>
-      <c r="H14" s="149">
+      <c r="H14" s="94">
         <v>80</v>
       </c>
-      <c r="I14" s="149">
+      <c r="I14" s="94">
         <v>74</v>
       </c>
-      <c r="J14" s="149">
+      <c r="J14" s="94">
         <v>69</v>
       </c>
-      <c r="K14" s="149">
+      <c r="K14" s="94">
         <v>67</v>
       </c>
-      <c r="L14" s="150"/>
+      <c r="L14" s="95"/>
     </row>
     <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="97"/>
-      <c r="C15" s="99"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
@@ -2603,10 +2636,10 @@
     </row>
     <row r="16" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="114" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2615,19 +2648,19 @@
       <c r="E17" s="5">
         <v>31</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
       <c r="K17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="101"/>
-      <c r="C18" s="104"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
@@ -2640,8 +2673,8 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="101"/>
-      <c r="C19" s="105" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="116" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2656,8 +2689,8 @@
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="102"/>
-      <c r="C20" s="106"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -2673,10 +2706,10 @@
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="121" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2699,8 +2732,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="96"/>
-      <c r="C23" s="98"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="3" t="s">
         <v>41</v>
       </c>
@@ -2721,24 +2754,24 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="97"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="107">
+      <c r="E24" s="118">
         <v>500</v>
       </c>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="106" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="17" t="s">
@@ -2756,8 +2789,8 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="96"/>
-      <c r="C27" s="98" t="s">
+      <c r="B27" s="107"/>
+      <c r="C27" s="109" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2776,8 +2809,8 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="96"/>
-      <c r="C28" s="98"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="3" t="s">
         <v>49</v>
       </c>
@@ -2794,8 +2827,8 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="97"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="8" t="s">
         <v>50</v>
       </c>
@@ -2816,11 +2849,11 @@
       </c>
     </row>
     <row r="34" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="111" t="s">
+      <c r="C34" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
     </row>
     <row r="35" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D35" s="20" t="s">
@@ -2834,10 +2867,10 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="114" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -2849,8 +2882,8 @@
       <c r="F36" s="19"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="101"/>
-      <c r="C37" s="104"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2860,8 +2893,8 @@
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="101"/>
-      <c r="C38" s="105" t="s">
+      <c r="B38" s="112"/>
+      <c r="C38" s="116" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2873,8 +2906,8 @@
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="101"/>
-      <c r="C39" s="104"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2884,8 +2917,8 @@
       <c r="F39" s="14"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="101"/>
-      <c r="C40" s="105" t="s">
+      <c r="B40" s="112"/>
+      <c r="C40" s="116" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2899,8 +2932,8 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="102"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="117"/>
       <c r="D41" s="8" t="s">
         <v>37</v>
       </c>
@@ -2942,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C9F59-3EE7-4C00-8DB6-E096F44C6ABD}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="K19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2981,14 +3014,14 @@
       <c r="A2" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="83" t="s">
@@ -3058,18 +3091,18 @@
     </row>
     <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="126"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="137"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3080,13 +3113,13 @@
       <c r="S6" s="31"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="123"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="27"/>
       <c r="H7" s="29" t="s">
         <v>106</v>
@@ -3126,12 +3159,12 @@
       <c r="G8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="122"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="133"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3181,24 +3214,24 @@
     </row>
     <row r="10" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="116" t="s">
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="130"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="141"/>
     </row>
     <row r="12" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="36" t="s">
@@ -3357,8 +3390,8 @@
       <c r="O15" s="14">
         <v>30</v>
       </c>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B16" s="26"/>
@@ -3391,16 +3424,16 @@
       <c r="O16" s="14">
         <v>40</v>
       </c>
-      <c r="R16" s="95" t="s">
+      <c r="R16" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="S16" s="123"/>
-      <c r="U16" s="95" t="s">
+      <c r="S16" s="134"/>
+      <c r="U16" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="123"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="134"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="26"/>
@@ -3489,24 +3522,24 @@
       <c r="U18" s="7">
         <v>30</v>
       </c>
-      <c r="V18" s="99">
+      <c r="V18" s="110">
         <v>50</v>
       </c>
-      <c r="W18" s="99"/>
-      <c r="X18" s="143"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="154"/>
     </row>
     <row r="20" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="P20" s="98" t="s">
+      <c r="P20" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="137" t="s">
+      <c r="Q20" s="109"/>
+      <c r="R20" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="S20" s="137"/>
+      <c r="S20" s="148"/>
       <c r="T20" s="51" t="s">
         <v>117</v>
       </c>
@@ -3573,10 +3606,10 @@
       <c r="S21" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="T21" s="135" t="s">
+      <c r="T21" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="U21" s="136"/>
+      <c r="U21" s="147"/>
       <c r="V21" s="68" t="s">
         <v>120</v>
       </c>
@@ -3849,7 +3882,7 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
@@ -3894,11 +3927,11 @@
         <v>71460</v>
       </c>
       <c r="T25" s="49">
-        <f>K25*$O25*( (1-T40/100)*AVERAGE($R25:$S25) + T40/100*AVERAGE($X40:$Y40) ) * 1.6</f>
+        <f>K25*$O25*( (1-T40/100)*AVERAGE($R25:$S25) + T40/100*AVERAGE($X40:$Y40) )*G25</f>
         <v>111478080</v>
       </c>
       <c r="U25" s="65">
-        <f>L25*$O25*( (1-U40/100)*AVERAGE($R25:$S25) + U40/100*AVERAGE($X40:$Y40) ) * 1.6</f>
+        <f>L25*$O25*( (1-U40/100)*AVERAGE($R25:$S25) + U40/100*AVERAGE($X40:$Y40) )*G25</f>
         <v>137203968</v>
       </c>
       <c r="V25" s="70">
@@ -4450,7 +4483,7 @@
       </c>
       <c r="U32" s="65">
         <f t="shared" si="13"/>
-        <v>74127188</v>
+        <v>75171230</v>
       </c>
       <c r="V32" s="70">
         <f t="shared" si="0"/>
@@ -4546,66 +4579,66 @@
     </row>
     <row r="34" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
       <c r="N35" s="74"/>
       <c r="O35" s="84" t="s">
         <v>153</v>
       </c>
       <c r="P35" s="85"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="92" t="s">
+      <c r="R35" s="103" t="s">
         <v>169</v>
       </c>
-      <c r="S35" s="93"/>
-      <c r="T35" s="93"/>
-      <c r="U35" s="131"/>
-      <c r="V35" s="132" t="s">
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="142"/>
+      <c r="V35" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="W35" s="133"/>
-      <c r="X35" s="132" t="s">
+      <c r="W35" s="144"/>
+      <c r="X35" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="Y35" s="134"/>
+      <c r="Y35" s="145"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="112" t="s">
+      <c r="C36" s="126"/>
+      <c r="D36" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="115"/>
-      <c r="F36" s="112" t="s">
+      <c r="E36" s="126"/>
+      <c r="F36" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="115"/>
-      <c r="H36" s="112" t="s">
+      <c r="G36" s="126"/>
+      <c r="H36" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="115"/>
-      <c r="J36" s="112" t="s">
+      <c r="I36" s="126"/>
+      <c r="J36" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="K36" s="115"/>
-      <c r="L36" s="112" t="s">
+      <c r="K36" s="126"/>
+      <c r="L36" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="M36" s="113"/>
+      <c r="M36" s="124"/>
       <c r="N36" s="77"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -4865,17 +4898,17 @@
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.4">
       <c r="N42" s="77"/>
-      <c r="O42" s="139" t="s">
+      <c r="O42" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="P42" s="139"/>
+      <c r="P42" s="150"/>
       <c r="Q42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R42" s="140">
+      <c r="R42" s="151">
         <v>100</v>
       </c>
-      <c r="S42" s="140">
+      <c r="S42" s="151">
         <f>R42+$V$18</f>
         <v>150</v>
       </c>
@@ -4899,13 +4932,13 @@
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.4">
       <c r="N43" s="77"/>
-      <c r="O43" s="139"/>
-      <c r="P43" s="139"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="150"/>
       <c r="Q43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R43" s="141"/>
-      <c r="S43" s="141"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152"/>
       <c r="T43" s="3">
         <v>0</v>
       </c>
@@ -4926,13 +4959,13 @@
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.4">
       <c r="N44" s="77"/>
-      <c r="O44" s="139"/>
-      <c r="P44" s="139"/>
+      <c r="O44" s="150"/>
+      <c r="P44" s="150"/>
       <c r="Q44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R44" s="142"/>
-      <c r="S44" s="142"/>
+      <c r="R44" s="153"/>
+      <c r="S44" s="153"/>
       <c r="T44" s="3">
         <v>0</v>
       </c>
@@ -4952,11 +4985,11 @@
       </c>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N45" s="138" t="s">
+      <c r="N45" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="O45" s="139"/>
-      <c r="P45" s="139"/>
+      <c r="O45" s="150"/>
+      <c r="P45" s="150"/>
       <c r="Q45" s="3" t="s">
         <v>39</v>
       </c>
@@ -4990,9 +5023,9 @@
       </c>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="N46" s="138"/>
-      <c r="O46" s="139"/>
-      <c r="P46" s="139"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="150"/>
+      <c r="P46" s="150"/>
       <c r="Q46" s="3" t="s">
         <v>38</v>
       </c>
@@ -5055,12 +5088,12 @@
         <v>1331687</v>
       </c>
       <c r="X47" s="3">
-        <f>INT(P32*($N32+S47)/100*$G32)</f>
-        <v>2475990</v>
+        <f>INT(P32*($N32+S47*2)/100*$G32)</f>
+        <v>2588535</v>
       </c>
       <c r="Y47" s="14">
-        <f>INT(Q32*($N32+S47)/100*$G32)</f>
-        <v>1352175</v>
+        <f>INT(Q32*($N32+S47*2)/100*$G32)</f>
+        <v>1413637</v>
       </c>
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.4">
@@ -5147,50 +5180,638 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CBE2C4-7B06-4008-9630-4534C485FE9D}">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="12" max="12" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+    <row r="1" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="78"/>
+    </row>
+    <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+    </row>
+    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D6" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5</v>
+      </c>
+      <c r="J7" s="8">
+        <v>6</v>
+      </c>
+      <c r="K7" s="8">
+        <v>7</v>
+      </c>
+      <c r="L7" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E8">
+        <v>96</v>
+      </c>
+      <c r="G8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="92">
+        <v>95</v>
+      </c>
+      <c r="F9" s="92">
+        <v>87</v>
+      </c>
+      <c r="G9" s="92">
+        <v>80</v>
+      </c>
+      <c r="H9" s="92">
+        <v>74</v>
+      </c>
+      <c r="I9" s="92">
+        <v>72</v>
+      </c>
+      <c r="J9" s="92">
+        <v>67</v>
+      </c>
+      <c r="K9" s="92">
+        <v>63</v>
+      </c>
+      <c r="L9" s="93"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="107"/>
+      <c r="C10" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="163">
+        <v>30</v>
+      </c>
+      <c r="F10" s="163">
+        <v>30</v>
+      </c>
+      <c r="G10" s="163">
+        <v>30</v>
+      </c>
+      <c r="H10" s="163">
+        <v>30</v>
+      </c>
+      <c r="I10" s="163">
+        <v>30</v>
+      </c>
+      <c r="J10" s="163">
+        <v>30</v>
+      </c>
+      <c r="K10" s="163">
+        <v>30</v>
+      </c>
+      <c r="L10" s="164">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="107"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="94">
+        <v>100</v>
+      </c>
+      <c r="F11" s="94">
+        <v>90</v>
+      </c>
+      <c r="G11" s="94">
+        <v>83</v>
+      </c>
+      <c r="H11" s="94">
+        <v>80</v>
+      </c>
+      <c r="I11" s="94">
+        <v>74</v>
+      </c>
+      <c r="J11" s="94">
+        <v>69</v>
+      </c>
+      <c r="K11" s="94">
+        <v>67</v>
+      </c>
+      <c r="L11" s="95">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="107"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="94">
+        <v>74</v>
+      </c>
+      <c r="F12" s="94">
+        <v>69</v>
+      </c>
+      <c r="G12" s="94">
+        <v>66</v>
+      </c>
+      <c r="H12" s="94">
+        <v>61</v>
+      </c>
+      <c r="I12" s="94">
+        <v>59</v>
+      </c>
+      <c r="J12" s="94">
+        <v>53</v>
+      </c>
+      <c r="K12" s="94">
+        <v>50</v>
+      </c>
+      <c r="L12" s="95">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="107"/>
+      <c r="C13" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="94">
+        <v>95</v>
+      </c>
+      <c r="F13" s="94">
+        <v>87</v>
+      </c>
+      <c r="G13" s="94">
+        <v>80</v>
+      </c>
+      <c r="H13" s="94">
+        <v>74</v>
+      </c>
+      <c r="I13" s="94">
+        <v>72</v>
+      </c>
+      <c r="J13" s="94">
+        <v>67</v>
+      </c>
+      <c r="K13" s="94">
+        <v>63</v>
+      </c>
+      <c r="L13" s="95"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="107"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="94">
+        <v>100</v>
+      </c>
+      <c r="F14" s="94">
+        <v>90</v>
+      </c>
+      <c r="G14" s="94">
+        <v>83</v>
+      </c>
+      <c r="H14" s="94">
+        <v>80</v>
+      </c>
+      <c r="I14" s="94">
+        <v>74</v>
+      </c>
+      <c r="J14" s="94">
+        <v>69</v>
+      </c>
+      <c r="K14" s="94">
+        <v>67</v>
+      </c>
+      <c r="L14" s="95"/>
+    </row>
+    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="108"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5">
+        <v>31</v>
+      </c>
+      <c r="F17" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="112"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3">
+        <v>83</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="112"/>
+      <c r="C19" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="113"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="8">
+        <v>95</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="107"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="3">
+        <v>94</v>
+      </c>
+      <c r="F23" s="3">
+        <v>86</v>
+      </c>
+      <c r="G23" s="3">
+        <v>82</v>
+      </c>
+      <c r="H23" s="3">
+        <v>76</v>
+      </c>
+      <c r="I23" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="108"/>
+      <c r="C24" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="118">
+        <v>500</v>
+      </c>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
+    </row>
+    <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="5">
+        <v>40</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="107"/>
+      <c r="C27" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>80</v>
+      </c>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="107"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="3">
+        <v>83</v>
+      </c>
+      <c r="F28" s="3">
+        <v>77</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>74</v>
+      </c>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="108"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B32" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="156" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="18">
+        <v>19</v>
+      </c>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B33" s="161"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="3">
+        <v>87</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="161"/>
+      <c r="C34" s="158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="3">
+        <v>19</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="161"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="3">
+        <v>83</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B36" s="161"/>
+      <c r="C36" s="158" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="162"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="9">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F17:I17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>